--- a/studentsgrades.xlsx
+++ b/studentsgrades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB431A8A-BA20-4CCA-97B6-A9A147C2DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01718142-610F-4C7E-8F99-6DE6DBAF0FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Total Geade</t>
+    <t>Total Grade</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/studentsgrades.xlsx
+++ b/studentsgrades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAT\Documents\GitHub\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01718142-610F-4C7E-8F99-6DE6DBAF0FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977ED09-1301-4AD8-A1FE-84F94248E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>5</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I12" si="0">D3+E3+F3+G3+H3</f>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>11</v>
@@ -583,7 +583,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,13 +649,15 @@
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
@@ -679,7 +681,7 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">

--- a/studentsgrades.xlsx
+++ b/studentsgrades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAT\Documents\GitHub\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977ED09-1301-4AD8-A1FE-84F94248E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB5FC6-1436-474D-ACDC-7258D333D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>student05</t>
-  </si>
-  <si>
-    <t>student06</t>
-  </si>
-  <si>
-    <t>student07</t>
-  </si>
-  <si>
-    <t>student08</t>
-  </si>
-  <si>
-    <t>student09</t>
-  </si>
-  <si>
-    <t>student10</t>
   </si>
   <si>
     <t>Rafat Nasserdeen</t>
@@ -428,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,30 +434,30 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -499,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>5</v>
@@ -517,8 +502,8 @@
         <v>33</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I12" si="0">D3+E3+F3+G3+H3</f>
-        <v>78</v>
+        <f t="shared" ref="I3:I7" si="0">D3+E3+F3+G3+H3</f>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -526,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -574,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>11</v>
@@ -583,7 +568,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -602,110 +587,6 @@
       <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2">
-        <v>40</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
   </sheetData>
